--- a/transformacion/staging/stg_beneficiarios_estrategias.xlsx
+++ b/transformacion/staging/stg_beneficiarios_estrategias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="209">
   <si>
     <t>N°</t>
   </si>
@@ -559,10 +559,10 @@
     <t>IE NORMAL NUESTRA SEÑORA DE LAS MERCEDES</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>878 Computadores
@@ -1100,6 +1100,18 @@
       <c r="D2" t="s">
         <v>53</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
       <c r="M2" t="s">
         <v>189</v>
       </c>
@@ -1135,6 +1147,18 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" t="s">
+        <v>182</v>
+      </c>
       <c r="M3" t="s">
         <v>189</v>
       </c>
@@ -1170,6 +1194,18 @@
       <c r="D4" t="s">
         <v>55</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" t="s">
+        <v>182</v>
+      </c>
       <c r="M4" t="s">
         <v>189</v>
       </c>
@@ -1205,6 +1241,15 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>181</v>
+      </c>
       <c r="M5" t="s">
         <v>189</v>
       </c>
@@ -1240,6 +1285,15 @@
       <c r="D6" t="s">
         <v>57</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
       <c r="M6" t="s">
         <v>189</v>
       </c>
@@ -1275,6 +1329,15 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
+      </c>
       <c r="M7" t="s">
         <v>189</v>
       </c>
@@ -1310,6 +1373,12 @@
       <c r="D8" t="s">
         <v>59</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>181</v>
+      </c>
       <c r="M8" t="s">
         <v>189</v>
       </c>
@@ -1345,6 +1414,15 @@
       <c r="D9" t="s">
         <v>60</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>181</v>
+      </c>
       <c r="M9" t="s">
         <v>189</v>
       </c>
@@ -1380,6 +1458,15 @@
       <c r="D10" t="s">
         <v>61</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>181</v>
+      </c>
       <c r="M10" t="s">
         <v>189</v>
       </c>
@@ -1415,6 +1502,15 @@
       <c r="D11" t="s">
         <v>62</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>181</v>
+      </c>
       <c r="M11" t="s">
         <v>189</v>
       </c>
@@ -1450,6 +1546,15 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>181</v>
+      </c>
       <c r="M12" t="s">
         <v>189</v>
       </c>
@@ -1485,6 +1590,15 @@
       <c r="D13" t="s">
         <v>64</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>181</v>
+      </c>
       <c r="M13" t="s">
         <v>189</v>
       </c>
@@ -1520,6 +1634,12 @@
       <c r="D14" t="s">
         <v>65</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>181</v>
+      </c>
       <c r="M14" t="s">
         <v>189</v>
       </c>
@@ -1555,6 +1675,12 @@
       <c r="D15" t="s">
         <v>66</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>181</v>
+      </c>
       <c r="M15" t="s">
         <v>189</v>
       </c>
@@ -1590,6 +1716,15 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>181</v>
+      </c>
       <c r="M16" t="s">
         <v>189</v>
       </c>
@@ -1625,6 +1760,12 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
       <c r="M17" t="s">
         <v>189</v>
       </c>
@@ -1660,6 +1801,12 @@
       <c r="D18" t="s">
         <v>68</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
       <c r="M18" t="s">
         <v>189</v>
       </c>
@@ -1695,6 +1842,12 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
       <c r="M19" t="s">
         <v>189</v>
       </c>
@@ -1730,6 +1883,12 @@
       <c r="D20" t="s">
         <v>70</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
       <c r="M20" t="s">
         <v>189</v>
       </c>
@@ -1765,6 +1924,12 @@
       <c r="D21" t="s">
         <v>71</v>
       </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
       <c r="M21" t="s">
         <v>189</v>
       </c>
@@ -1800,6 +1965,15 @@
       <c r="D22" t="s">
         <v>72</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
       <c r="M22" t="s">
         <v>189</v>
       </c>
@@ -1835,6 +2009,15 @@
       <c r="D23" t="s">
         <v>73</v>
       </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
       <c r="M23" t="s">
         <v>189</v>
       </c>
@@ -1870,6 +2053,15 @@
       <c r="D24" t="s">
         <v>74</v>
       </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
       <c r="M24" t="s">
         <v>189</v>
       </c>
@@ -1905,6 +2097,12 @@
       <c r="D25" t="s">
         <v>75</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>181</v>
+      </c>
       <c r="M25" t="s">
         <v>189</v>
       </c>
@@ -1940,6 +2138,12 @@
       <c r="D26" t="s">
         <v>76</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
       <c r="M26" t="s">
         <v>189</v>
       </c>
@@ -8804,10 +9008,10 @@
         <v>36</v>
       </c>
       <c r="I222" t="s">
+        <v>182</v>
+      </c>
+      <c r="K222" t="s">
         <v>181</v>
-      </c>
-      <c r="K222" t="s">
-        <v>182</v>
       </c>
       <c r="L222" t="s">
         <v>183</v>
@@ -8851,10 +9055,10 @@
         <v>4</v>
       </c>
       <c r="I223" t="s">
+        <v>182</v>
+      </c>
+      <c r="K223" t="s">
         <v>181</v>
-      </c>
-      <c r="K223" t="s">
-        <v>182</v>
       </c>
       <c r="L223" t="s">
         <v>184</v>
@@ -8898,10 +9102,10 @@
         <v>33</v>
       </c>
       <c r="I224" t="s">
+        <v>182</v>
+      </c>
+      <c r="K224" t="s">
         <v>181</v>
-      </c>
-      <c r="K224" t="s">
-        <v>182</v>
       </c>
       <c r="L224" t="s">
         <v>185</v>
@@ -8945,10 +9149,10 @@
         <v>4</v>
       </c>
       <c r="I225" t="s">
+        <v>182</v>
+      </c>
+      <c r="K225" t="s">
         <v>181</v>
-      </c>
-      <c r="K225" t="s">
-        <v>182</v>
       </c>
       <c r="L225" t="s">
         <v>186</v>
@@ -8992,10 +9196,10 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
+        <v>182</v>
+      </c>
+      <c r="K226" t="s">
         <v>181</v>
-      </c>
-      <c r="K226" t="s">
-        <v>182</v>
       </c>
       <c r="L226" t="s">
         <v>187</v>
@@ -9039,10 +9243,10 @@
         <v>21</v>
       </c>
       <c r="I227" t="s">
+        <v>182</v>
+      </c>
+      <c r="K227" t="s">
         <v>181</v>
-      </c>
-      <c r="K227" t="s">
-        <v>182</v>
       </c>
       <c r="L227" t="s">
         <v>188</v>
